--- a/plugins/excel-spreadsheet/files/data.xlsx
+++ b/plugins/excel-spreadsheet/files/data.xlsx
@@ -15,110 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
-  <si>
-    <t>Post ID</t>
-  </si>
-  <si>
-    <t>Post Title</t>
-  </si>
-  <si>
-    <t>Post Date</t>
-  </si>
-  <si>
-    <t>_crb_team_member_caption_text</t>
-  </si>
-  <si>
-    <t>crb_team_member_boxes--repeater</t>
-  </si>
-  <si>
-    <t>crb_team_member_features--repeater</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>Some Text3</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>Member 3 Box Title 1</t>
-  </si>
-  <si>
-    <t>Member 3 Box Content 1</t>
-  </si>
-  <si>
-    <t>Member 3 Feature 1</t>
-  </si>
-  <si>
-    <t>Member 3 Box Title 2</t>
-  </si>
-  <si>
-    <t>Member 3 Box Content 2</t>
-  </si>
-  <si>
-    <t>Member 3 Feature 2</t>
-  </si>
-  <si>
-    <t>Member 3 Box Title 3</t>
-  </si>
-  <si>
-    <t>Member 3 Box Content 3</t>
-  </si>
-  <si>
-    <t>Member 3 Feature 3</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>2020-01-22</t>
-  </si>
-  <si>
-    <t>Some Text2</t>
-  </si>
-  <si>
-    <t>Member 1 Box Title 1</t>
-  </si>
-  <si>
-    <t>Member 1 Box Content 1</t>
-  </si>
-  <si>
-    <t>Member 1 Feature 1</t>
-  </si>
-  <si>
-    <t>Member 1 Box Title 2</t>
-  </si>
-  <si>
-    <t>Member 1 Box Content 2</t>
-  </si>
-  <si>
-    <t>Member 1 Feature 2</t>
-  </si>
-  <si>
-    <t>Member 1 Box Title 3</t>
-  </si>
-  <si>
-    <t>Member 1 Box Content 3</t>
-  </si>
-  <si>
-    <t>Member 1 Feature 3</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Some Text</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,183 +352,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
